--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3909.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3909.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Patrick James Cummins</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>19/10/2011</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3339</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3344</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3347</t>
+          <t>3347</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3416</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>16/01/2015</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>18/01/2015</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>23/01/2015</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1104,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1092,7 +1151,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>27/08/2015</t>
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1140,7 +1198,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>03/09/2015</t>
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1188,7 +1245,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>05/09/2015</t>
@@ -1196,7 +1252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1288,7 +1344,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>11/09/2015</t>
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1336,7 +1391,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>12/09/2015</t>
@@ -1344,7 +1398,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,7 +1490,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>06/12/2016</t>
@@ -1444,7 +1497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1484,7 +1537,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>09/12/2016</t>
@@ -1492,7 +1544,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1544,7 +1596,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1688,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1684,7 +1735,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>22/01/2017</t>
@@ -1692,7 +1742,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1794,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1796,7 +1846,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1888,7 +1938,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>02/06/2017</t>
@@ -1896,7 +1945,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1936,7 +1985,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>05/06/2017</t>
@@ -1944,7 +1992,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2048,7 +2096,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2100,7 +2148,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2140,7 +2188,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>24/09/2017</t>
@@ -2148,7 +2195,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2188,7 +2235,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>28/09/2017</t>
@@ -2196,7 +2242,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2248,7 +2294,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2352,7 +2398,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2404,7 +2450,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2456,7 +2502,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2508,7 +2554,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2560,7 +2606,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2612,7 +2658,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2664,7 +2710,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2704,7 +2750,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>08/03/2019</t>
@@ -2712,7 +2757,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2752,7 +2797,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -2760,7 +2804,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2812,7 +2856,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2864,7 +2908,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2904,7 +2948,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2912,7 +2955,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2964,7 +3007,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3016,7 +3059,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3068,7 +3111,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3120,7 +3163,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3160,7 +3203,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>20/06/2019</t>
@@ -3168,7 +3210,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3220,7 +3262,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3272,7 +3314,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3324,7 +3366,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3376,7 +3418,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3416,7 +3458,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -3424,7 +3465,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3476,7 +3517,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3528,7 +3569,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3580,7 +3621,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3632,7 +3673,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3684,7 +3725,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3736,7 +3777,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3788,7 +3829,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3840,7 +3881,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3892,7 +3933,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3932,7 +3973,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>29/11/2020</t>
@@ -3940,7 +3980,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3992,7 +4032,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4044,7 +4084,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4096,7 +4136,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4136,7 +4176,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>24/06/2022</t>
@@ -4144,7 +4183,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4184,7 +4223,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>17/11/2022</t>
@@ -4192,7 +4230,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4232,7 +4270,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>22/11/2022</t>
@@ -4240,7 +4277,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4279,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4301,7 +4338,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4338,7 +4375,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3339</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4375,7 +4412,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3344</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4412,7 +4449,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3347</t>
+          <t>3347</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4449,7 +4486,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3416</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4486,7 +4523,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4523,7 +4560,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4560,7 +4597,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4597,7 +4634,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4634,7 +4671,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4671,7 +4708,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4708,7 +4745,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4745,7 +4782,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4782,7 +4819,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4819,7 +4856,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4856,7 +4893,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4893,7 +4930,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4930,7 +4967,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4967,7 +5004,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5004,7 +5041,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5041,7 +5078,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5078,7 +5115,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5115,7 +5152,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5152,7 +5189,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5189,7 +5226,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5226,7 +5263,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5263,7 +5300,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5300,7 +5337,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5337,7 +5374,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5374,7 +5411,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5411,7 +5448,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5448,7 +5485,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5485,7 +5522,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5522,7 +5559,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5559,7 +5596,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5596,7 +5633,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5633,7 +5670,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5670,7 +5707,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5707,7 +5744,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5744,7 +5781,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5781,7 +5818,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5818,7 +5855,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5855,7 +5892,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5892,7 +5929,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5929,7 +5966,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5966,7 +6003,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6003,7 +6040,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6040,7 +6077,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6077,7 +6114,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6114,7 +6151,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6151,7 +6188,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6188,7 +6225,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6225,7 +6262,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6262,7 +6299,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6299,7 +6336,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6336,7 +6373,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6373,7 +6410,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6410,7 +6447,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6447,7 +6484,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6484,7 +6521,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6521,7 +6558,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6558,7 +6595,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6595,7 +6632,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6632,7 +6669,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6669,7 +6706,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6706,7 +6743,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6743,7 +6780,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6780,7 +6817,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6817,7 +6854,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6854,7 +6891,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6891,7 +6928,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6928,7 +6965,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6965,7 +7002,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7002,7 +7039,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7039,7 +7076,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7076,7 +7113,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7102,6 +7139,541 @@
       <c r="G76" t="inlineStr">
         <is>
           <t>2/25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.86%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.69%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.43%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.06%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.31%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.78%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3909.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3909.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7292,9 +7293,6 @@
       <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7320,7 +7318,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7346,7 +7343,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7389,15 +7385,422 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.43%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.06%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.31%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.78%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7405,27 +7808,14 @@
           <t>4423</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.43%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7435,27 +7825,14 @@
           <t>4429</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.06%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7465,27 +7842,14 @@
           <t>4430</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.31%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7495,27 +7859,14 @@
           <t>4431</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.31%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7527,13 +7878,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7543,13 +7887,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7559,13 +7896,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7573,27 +7903,14 @@
           <t>4597</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.12%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -7603,27 +7920,14 @@
           <t>4601</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>9</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.78%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7633,15 +7937,14 @@
           <t>4603</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7653,13 +7956,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7669,13 +7965,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3909.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3909.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -721,7 +720,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7293,6 +7292,9 @@
       <c r="B5" t="n">
         <v>8</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7318,6 +7320,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7343,6 +7346,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7385,6 +7389,10 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7517,6 +7525,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7529,6 +7541,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7541,6 +7557,10 @@
           <t>4594</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7616,6 +7636,9 @@
       <c r="B19" t="n">
         <v>9</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7628,6 +7651,10 @@
           <t>4660</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7640,331 +7667,15 @@
           <t>4666</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4415</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3909.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3909.xlsx
@@ -7153,7 +7153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7196,27 +7196,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9.47%</t>
-        </is>
-      </c>
+          <t>3339</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7226,11 +7212,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4351</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -7244,7 +7230,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.86%</t>
+          <t>2.64%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -7256,27 +7242,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.69%</t>
-        </is>
-      </c>
+          <t>3347</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7286,15 +7258,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4398</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.56%</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7304,22 +7288,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3417</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
@@ -7330,22 +7304,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
@@ -7356,27 +7320,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4415</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.76%</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7386,7 +7338,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4419</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -7402,27 +7354,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.43%</t>
-        </is>
-      </c>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7432,11 +7370,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -7450,7 +7388,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.06%</t>
+          <t>4.64%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -7462,27 +7400,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.31%</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7492,27 +7418,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.31%</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7522,10 +7436,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -7538,7 +7454,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -7554,10 +7470,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>3831</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -7570,27 +7488,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.12%</t>
-        </is>
-      </c>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7600,27 +7504,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.78%</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7630,12 +7522,10 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -7648,13 +7538,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.60%</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7664,7 +7568,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -7677,6 +7581,1294 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.27%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12.86%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10.51%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.30%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5.51%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2.86%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2.69%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5.43%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3.06%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>5.31%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>13.78%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
